--- a/flixOpt_excel/resources/ExcelTemplates/TemplateMain.xlsx
+++ b/flixOpt_excel/resources/ExcelTemplates/TemplateMain.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Dokumente - eigene/Arbeit_SE_Trainee/Energiesystemmodell/flixOpt_excel/resources/ExcelTemplates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felix/Documents/Dokumente - eigene/Arbeit_SE_Trainee/Repositories/flixOpt_excel_repo/flixOpt_excel/resources/ExcelTemplates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7519CA7C-7387-E944-8787-3670A6273790}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1162DF9D-7491-7041-9460-6279F55395B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" tabRatio="866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46320" yWindow="-1840" windowWidth="25600" windowHeight="15500" tabRatio="866" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="_README" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="37">
   <si>
     <t>Einheiten</t>
   </si>
@@ -160,12 +160,15 @@
   <si>
     <t>Ausgangsjahr</t>
   </si>
+  <si>
+    <t>Bitte hier die installierte Leistung je technologie angeben, die vor dem ersten Jahr des Modell vorhanden war</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +231,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -249,7 +260,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -365,11 +376,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -400,6 +448,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -15365,10 +15417,10 @@
   <sheetPr>
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A3:A44"/>
+  <dimension ref="AR3:BD70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="AX68" sqref="AX68"/>
+    <sheetView tabSelected="1" topLeftCell="R13" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AS74" sqref="AS74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -15389,6 +15441,80 @@
     <row r="36" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="37" ht="24" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="44" ht="16" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" spans="44:56" x14ac:dyDescent="0.15">
+      <c r="AR68" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="44:56" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!B1), 'Installierte Leistung'!B1, "")</f>
+        <v/>
+      </c>
+      <c r="AS69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!C1), 'Installierte Leistung'!C1, "")</f>
+        <v/>
+      </c>
+      <c r="AT69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!D1), 'Installierte Leistung'!D1, "")</f>
+        <v/>
+      </c>
+      <c r="AU69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!E1), 'Installierte Leistung'!E1, "")</f>
+        <v/>
+      </c>
+      <c r="AV69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!F1), 'Installierte Leistung'!F1, "")</f>
+        <v/>
+      </c>
+      <c r="AW69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!G1), 'Installierte Leistung'!G1, "")</f>
+        <v/>
+      </c>
+      <c r="AX69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!H1), 'Installierte Leistung'!H1, "")</f>
+        <v/>
+      </c>
+      <c r="AY69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!I1), 'Installierte Leistung'!I1, "")</f>
+        <v/>
+      </c>
+      <c r="AZ69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!J1), 'Installierte Leistung'!J1, "")</f>
+        <v/>
+      </c>
+      <c r="BA69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!K1), 'Installierte Leistung'!K1, "")</f>
+        <v/>
+      </c>
+      <c r="BB69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!L1), 'Installierte Leistung'!L1, "")</f>
+        <v/>
+      </c>
+      <c r="BC69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!M1), 'Installierte Leistung'!M1, "")</f>
+        <v/>
+      </c>
+      <c r="BD69" s="23" t="str">
+        <f>IF(ISTEXT('Installierte Leistung'!N1), 'Installierte Leistung'!N1, "")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="44:56" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AR70" s="20"/>
+      <c r="AS70" s="21"/>
+      <c r="AT70" s="21"/>
+      <c r="AU70" s="21"/>
+      <c r="AV70" s="21"/>
+      <c r="AW70" s="21"/>
+      <c r="AX70" s="21"/>
+      <c r="AY70" s="21"/>
+      <c r="AZ70" s="21"/>
+      <c r="BA70" s="21"/>
+      <c r="BB70" s="21"/>
+      <c r="BC70" s="21"/>
+      <c r="BD70" s="22"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -15436,15 +15562,15 @@
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B1" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!B1),"",'Installierte Leistung'!B1)</f>
         <v/>
@@ -15486,36 +15612,64 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
       <c r="B2">
-        <v>361.75</v>
+        <f>Erzeugung!AR70</f>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>442</v>
+        <f>Erzeugung!AS70</f>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>40</v>
+        <f>Erzeugung!AT70</f>
+        <v>0</v>
       </c>
       <c r="E2">
+        <f>Erzeugung!AU70</f>
         <v>0</v>
       </c>
       <c r="F2">
+        <f>Erzeugung!AV70</f>
         <v>0</v>
       </c>
       <c r="G2">
+        <f>Erzeugung!AW70</f>
         <v>0</v>
       </c>
       <c r="H2">
+        <f>Erzeugung!AX70</f>
         <v>0</v>
       </c>
       <c r="I2">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+        <f>Erzeugung!AY70</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f>Erzeugung!AZ70</f>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f>Erzeugung!BA70</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f>Erzeugung!BB70</f>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>Erzeugung!BC70</f>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f>Erzeugung!BD70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!A2),"",'Installierte Leistung'!A2)</f>
         <v/>
@@ -15560,8 +15714,20 @@
         <f>IF(ISBLANK('Installierte Leistung'!K2),"",'Installierte Leistung'!K2-K2)</f>
         <v/>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L3" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!L2),"",'Installierte Leistung'!L2-L2)</f>
+        <v/>
+      </c>
+      <c r="M3" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!M2),"",'Installierte Leistung'!M2-M2)</f>
+        <v/>
+      </c>
+      <c r="N3" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!N2),"",'Installierte Leistung'!N2-N2)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!A3),"",'Installierte Leistung'!A3)</f>
         <v/>
@@ -15606,8 +15772,20 @@
         <f>IF(ISBLANK('Installierte Leistung'!K3),"",'Installierte Leistung'!K3-K3)</f>
         <v/>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L4" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!L3),"",'Installierte Leistung'!L3-L3)</f>
+        <v/>
+      </c>
+      <c r="M4" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!M3),"",'Installierte Leistung'!M3-M3)</f>
+        <v/>
+      </c>
+      <c r="N4" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!N3),"",'Installierte Leistung'!N3-N3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!A4),"",'Installierte Leistung'!A4)</f>
         <v/>
@@ -15652,8 +15830,20 @@
         <f>IF(ISBLANK('Installierte Leistung'!K4),"",'Installierte Leistung'!K4-K4)</f>
         <v/>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L5" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!L4),"",'Installierte Leistung'!L4-L4)</f>
+        <v/>
+      </c>
+      <c r="M5" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!M4),"",'Installierte Leistung'!M4-M4)</f>
+        <v/>
+      </c>
+      <c r="N5" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!N4),"",'Installierte Leistung'!N4-N4)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!A5),"",'Installierte Leistung'!A5)</f>
         <v/>
@@ -15698,8 +15888,20 @@
         <f>IF(ISBLANK('Installierte Leistung'!K5),"",'Installierte Leistung'!K5-K5)</f>
         <v/>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L6" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!L5),"",'Installierte Leistung'!L5-L5)</f>
+        <v/>
+      </c>
+      <c r="M6" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!M5),"",'Installierte Leistung'!M5-M5)</f>
+        <v/>
+      </c>
+      <c r="N6" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!N5),"",'Installierte Leistung'!N5-N5)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!A6),"",'Installierte Leistung'!A6)</f>
         <v/>
@@ -15742,6 +15944,18 @@
       </c>
       <c r="K7" t="str">
         <f>IF(ISBLANK('Installierte Leistung'!K6),"",'Installierte Leistung'!K6)</f>
+        <v/>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!L6),"",'Installierte Leistung'!L6)</f>
+        <v/>
+      </c>
+      <c r="M7" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!M6),"",'Installierte Leistung'!M6)</f>
+        <v/>
+      </c>
+      <c r="N7" t="str">
+        <f>IF(ISBLANK('Installierte Leistung'!N6),"",'Installierte Leistung'!N6)</f>
         <v/>
       </c>
     </row>
